--- a/tradept/Excel/Localization/english/R人物列表_Roles_Fighters_hotfix.xlsx
+++ b/tradept/Excel/Localization/english/R人物列表_Roles_Fighters_hotfix.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="f:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\tradept\Excel\Localization\english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27245A68-4E06-4578-B947-327ABDA9A98A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21A387BB-3644-482D-ACFC-6B91A2BEC251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10245" windowHeight="11520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="43">
   <si>
     <t>显示名称_DisplayName</t>
   </si>
@@ -170,6 +170,12 @@
 Fighter:1
 IdentityStr:[@str=npc_idstr_fighter]Lutador
 SYNC_PLAYER_LEVEL:1</t>
+  </si>
+  <si>
+    <t>人物ID_CharacterID</t>
+  </si>
+  <si>
+    <t>显示名称_DisplayName(Origin)</t>
   </si>
 </sst>
 </file>
@@ -327,21 +333,21 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -694,822 +700,834 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B40"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="3" max="3" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="88" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="175.5">
-      <c r="A1" s="10" t="s">
-        <v>13</v>
+    <row r="1" spans="1:7" ht="45">
+      <c r="A1" s="11" t="s">
+        <v>41</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="175.5">
-      <c r="A2" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="9" t="s">
+      <c r="A2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="2"/>
       <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="175.5">
-      <c r="A3" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="11" t="s">
+      <c r="A3" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="2"/>
       <c r="F3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="175.5">
-      <c r="A4" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="9" t="s">
+      <c r="A4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="1"/>
       <c r="F4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="175.5">
-      <c r="A5" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="9" t="s">
+      <c r="A5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="1"/>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:7" ht="175.5">
-      <c r="A6" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="9" t="s">
+      <c r="A6" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="4"/>
       <c r="F6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="175.5">
-      <c r="A7" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="9" t="s">
+      <c r="A7" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="4"/>
       <c r="F7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="175.5">
-      <c r="A8" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="9" t="s">
+      <c r="A8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="4"/>
       <c r="F8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="175.5">
-      <c r="A9" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="9" t="s">
+      <c r="A9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D9" s="4"/>
       <c r="F9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="175.5">
-      <c r="A10" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="9" t="s">
+      <c r="A10" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D10" s="4"/>
       <c r="F10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="175.5">
-      <c r="A11" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="9" t="s">
+      <c r="A11" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D11" s="4"/>
       <c r="F11" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="G11" s="8" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="175.5">
-      <c r="A12" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="9" t="s">
+      <c r="A12" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D12" s="4"/>
       <c r="F12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="G12" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="175.5">
-      <c r="A13" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="11" t="s">
+      <c r="A13" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="8" t="s">
         <v>28</v>
       </c>
       <c r="D13" s="4"/>
       <c r="F13" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="G13" s="10" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="175.5">
-      <c r="A14" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="9" t="s">
+      <c r="A14" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>30</v>
       </c>
       <c r="D14" s="4"/>
       <c r="F14" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="G14" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="175.5">
-      <c r="A15" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="9" t="s">
+      <c r="A15" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>32</v>
       </c>
       <c r="D15" s="4"/>
       <c r="F15" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G15" s="9" t="s">
+      <c r="G15" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="175.5">
-      <c r="A16" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="9" t="s">
+      <c r="A16" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D16" s="5"/>
       <c r="F16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="9" t="s">
+      <c r="G16" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="175.5">
-      <c r="A17" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" s="9" t="s">
+      <c r="A17" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D17" s="5"/>
       <c r="F17" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G17" s="9" t="s">
+      <c r="G17" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="175.5">
-      <c r="A18" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" s="9" t="s">
+      <c r="A18" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="8" t="s">
         <v>18</v>
       </c>
       <c r="D18" s="5"/>
       <c r="F18" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G18" s="9" t="s">
+      <c r="G18" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="175.5">
-      <c r="A19" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="9" t="s">
+      <c r="A19" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D19" s="5"/>
       <c r="F19" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G19" s="9" t="s">
+      <c r="G19" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="175.5">
-      <c r="A20" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="9" t="s">
+      <c r="A20" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D20" s="5"/>
       <c r="F20" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G20" s="9" t="s">
+      <c r="G20" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="175.5">
-      <c r="A21" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="9" t="s">
+      <c r="A21" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D21" s="5"/>
       <c r="F21" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G21" s="9" t="s">
+      <c r="G21" s="8" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="175.5">
-      <c r="A22" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="9" t="s">
+      <c r="A22" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D22" s="5"/>
       <c r="F22" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G22" s="9" t="s">
+      <c r="G22" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="175.5">
-      <c r="A23" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B23" s="11" t="s">
+      <c r="A23" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="8" t="s">
         <v>28</v>
       </c>
       <c r="D23" s="5"/>
       <c r="F23" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G23" s="9" t="s">
+      <c r="G23" s="8" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="175.5">
-      <c r="A24" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="9" t="s">
+      <c r="A24" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="8" t="s">
         <v>30</v>
       </c>
       <c r="D24" s="5"/>
       <c r="F24" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G24" s="9" t="s">
+      <c r="G24" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="175.5">
-      <c r="A25" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25" s="9" t="s">
+      <c r="A25" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="8" t="s">
         <v>32</v>
       </c>
       <c r="D25" s="5"/>
       <c r="F25" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G25" s="9" t="s">
+      <c r="G25" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="175.5">
-      <c r="A26" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26" s="9" t="s">
+      <c r="A26" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D26" s="6"/>
       <c r="F26" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G26" s="9" t="s">
+      <c r="G26" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="175.5">
-      <c r="A27" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C27" s="9" t="s">
+      <c r="A27" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D27" s="6"/>
       <c r="F27" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G27" s="9" t="s">
+      <c r="G27" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="175.5">
-      <c r="A28" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C28" s="9" t="s">
+      <c r="A28" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" s="8" t="s">
         <v>18</v>
       </c>
       <c r="D28" s="6"/>
       <c r="F28" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G28" s="9" t="s">
+      <c r="G28" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="175.5">
-      <c r="A29" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B29" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C29" s="9" t="s">
+      <c r="A29" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D29" s="6"/>
       <c r="F29" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G29" s="9" t="s">
+      <c r="G29" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="175.5">
-      <c r="A30" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C30" s="9" t="s">
+      <c r="A30" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D30" s="6"/>
       <c r="F30" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G30" s="9" t="s">
+      <c r="G30" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="175.5">
-      <c r="A31" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C31" s="9" t="s">
+      <c r="A31" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D31" s="6"/>
       <c r="F31" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G31" s="9" t="s">
+      <c r="G31" s="8" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="175.5">
-      <c r="A32" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B32" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C32" s="9" t="s">
+      <c r="A32" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="6"/>
       <c r="F32" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G32" s="9" t="s">
+      <c r="G32" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="175.5">
-      <c r="A33" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B33" s="11" t="s">
+      <c r="A33" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C33" s="8" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="6"/>
       <c r="F33" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G33" s="9" t="s">
+      <c r="G33" s="8" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="175.5">
-      <c r="A34" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B34" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C34" s="9" t="s">
+      <c r="A34" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" s="8" t="s">
         <v>30</v>
       </c>
       <c r="D34" s="6"/>
       <c r="F34" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G34" s="9" t="s">
+      <c r="G34" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="175.5">
-      <c r="A35" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B35" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C35" s="9" t="s">
+      <c r="A35" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" s="8" t="s">
         <v>32</v>
       </c>
       <c r="D35" s="6"/>
       <c r="F35" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G35" s="9" t="s">
+      <c r="G35" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="175.5">
-      <c r="A36" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B36" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C36" s="9" t="s">
+      <c r="A36" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D36" s="4"/>
       <c r="F36" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G36" s="9" t="s">
+      <c r="G36" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="175.5">
-      <c r="A37" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B37" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C37" s="9" t="s">
+      <c r="A37" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D37" s="4"/>
       <c r="F37" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G37" s="9" t="s">
+      <c r="G37" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="175.5">
-      <c r="A38" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B38" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C38" s="9" t="s">
+      <c r="A38" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" s="8" t="s">
         <v>18</v>
       </c>
       <c r="D38" s="4"/>
       <c r="F38" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G38" s="9" t="s">
+      <c r="G38" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="175.5">
-      <c r="A39" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B39" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C39" s="9" t="s">
+      <c r="A39" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D39" s="4"/>
       <c r="F39" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G39" s="9" t="s">
+      <c r="G39" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="175.5">
-      <c r="A40" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B40" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C40" s="9" t="s">
+      <c r="A40" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C40" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D40" s="4"/>
       <c r="F40" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G40" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="112.5">
-      <c r="A41" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C41" s="9" t="s">
+      <c r="G40" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="175.5">
+      <c r="A41" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C41" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D41" s="4"/>
       <c r="F41" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G41" s="9" t="s">
+      <c r="G41" s="8" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="112.5">
       <c r="A42" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C42" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C42" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D42" s="4"/>
       <c r="F42" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G42" s="9" t="s">
+      <c r="G42" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="112.5">
       <c r="A43" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C43" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C43" s="8" t="s">
         <v>28</v>
       </c>
       <c r="D43" s="4"/>
       <c r="F43" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G43" s="9" t="s">
+      <c r="G43" s="8" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="112.5">
       <c r="A44" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C44" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C44" s="8" t="s">
         <v>30</v>
       </c>
       <c r="D44" s="4"/>
       <c r="F44" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G44" s="9" t="s">
+      <c r="G44" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="112.5">
       <c r="A45" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C45" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C45" s="8" t="s">
         <v>32</v>
       </c>
       <c r="D45" s="4"/>
       <c r="F45" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G45" s="9" t="s">
-        <v>14</v>
+      <c r="G45" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="22.5">
+      <c r="A46" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
